--- a/resources/Security_Matrix.xlsx
+++ b/resources/Security_Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Security Matrix" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t xml:space="preserve">Attack Form </t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Using Stored Procedure</t>
+  </si>
+  <si>
+    <t>Using mysqli Or PDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Using Tunnel to access database </t>
+  </si>
+  <si>
+    <t>ex : myPrefix_user</t>
+  </si>
+  <si>
+    <t>https://www.sitepoint.com/stored-procedures-mysql-php/</t>
   </si>
 </sst>
 </file>
@@ -340,9 +352,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -364,6 +373,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -722,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -735,219 +747,219 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" ht="20">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="2">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="2">
+      <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="2">
+      <c r="B19" s="11">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="2">
+      <c r="B26" s="11">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -957,8 +969,8 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
@@ -966,44 +978,44 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1011,10 +1023,10 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="2">
+      <c r="B33" s="11">
         <v>5</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1024,26 +1036,26 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1051,27 +1063,27 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="8" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1080,10 +1092,10 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="2">
+      <c r="B40" s="11">
         <v>6</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1093,8 +1105,8 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1102,8 +1114,8 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1111,10 +1123,10 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="2">
+      <c r="B43" s="11">
         <v>7</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1124,8 +1136,8 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1133,8 +1145,8 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1142,8 +1154,8 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1151,8 +1163,8 @@
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1160,46 +1172,46 @@
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="5" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="5" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="5" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="8" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="2">
+      <c r="B52" s="11">
         <v>8</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -1209,28 +1221,28 @@
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="8" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="1" t="s">
         <v>58</v>
       </c>
@@ -1240,10 +1252,10 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="2">
+      <c r="B56" s="11">
         <v>9</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -1253,137 +1265,155 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3" t="s">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="3" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="2">
+      <c r="B62" s="11">
         <v>10</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="4" t="s">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="5" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="5" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="5" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="5" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="10" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="8" t="s">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="8" t="s">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F70" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
     <mergeCell ref="B56:B61"/>
     <mergeCell ref="C56:C61"/>
     <mergeCell ref="C62:C70"/>
@@ -1394,16 +1424,6 @@
     <mergeCell ref="C43:C51"/>
     <mergeCell ref="C52:C55"/>
     <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E54" r:id="rId1"/>
